--- a/otv/Transfert_Donnees/FME/RTest/VerifIntegriteInterneGest/Resultats/resultTestUnitaireVerifIntegrite.xlsx
+++ b/otv/Transfert_Donnees/FME/RTest/VerifIntegriteInterneGest/Resultats/resultTestUnitaireVerifIntegrite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="88" uniqueCount="32">
   <si>
     <t>id_comptag_gest</t>
   </si>
@@ -84,12 +84,12 @@
     <t>DD-DXXXX-PR+Abs2</t>
   </si>
   <si>
+    <t>KO</t>
+  </si>
+  <si>
     <t>DD-DXXXX-PR+Abs3</t>
   </si>
   <si>
-    <t>KO</t>
-  </si>
-  <si>
     <t>DD-DXXXX-PR+Abs4</t>
   </si>
   <si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>DD-DXXXX-PR+Abs8</t>
+  </si>
+  <si>
+    <t>DD-DXXXX-PR+Abs9</t>
+  </si>
+  <si>
+    <t>DD-DXXXX-PR+Abs10</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -292,19 +298,19 @@
         <v>2006</v>
       </c>
       <c r="F2" s="1">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
         <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5.0099999999999998</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.01</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>19</v>
@@ -324,56 +330,56 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
         <v>5000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>2006</v>
       </c>
-      <c r="F3" s="1">
-        <v>1002</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5.0099999999999998</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="F3" s="2">
+        <v>149.31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -388,19 +394,19 @@
         <v>2006</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>5.0099999999999998</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2">
-        <v>4.0099999999999998</v>
+        <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
@@ -427,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>5000</v>
@@ -436,19 +442,19 @@
         <v>2006</v>
       </c>
       <c r="F5" s="2">
-        <v>1002</v>
+        <v>149.31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>5.0099999999999998</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2">
-        <v>4.0099999999999998</v>
+        <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>19</v>
@@ -481,10 +487,10 @@
         <v>2000</v>
       </c>
       <c r="E6" s="1">
-        <v>2100</v>
+        <v>2105</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>4.9900000000000002</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>19</v>
@@ -493,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="I6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
@@ -529,10 +535,10 @@
         <v>2000</v>
       </c>
       <c r="E7" s="1">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>4.9900000000000002</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>19</v>
@@ -541,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="I7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>19</v>
@@ -564,50 +570,50 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
         <v>2000</v>
       </c>
-      <c r="E8" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="E8" s="2">
+        <v>6500</v>
+      </c>
+      <c r="F8" s="2">
+        <v>69.230000000000004</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8.3300000000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3.3300000000000001</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -637,10 +643,10 @@
         <v>5</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>19</v>
@@ -659,6 +665,102 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2106</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5.0300000000000002</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1904</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5.04</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>